--- a/self-assessment.xlsx
+++ b/self-assessment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="hard" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>business domain</t>
   </si>
@@ -96,9 +96,6 @@
     <t>not to be badtempered</t>
   </si>
   <si>
-    <t>html/css</t>
-  </si>
-  <si>
     <t>ios</t>
   </si>
   <si>
@@ -130,12 +127,6 @@
   </si>
   <si>
     <t>believe self and calm down</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> thinking/act as a senior</t>
-  </si>
-  <si>
-    <t>be happy and show position to other people</t>
   </si>
   <si>
     <t>business</t>
@@ -163,10 +154,45 @@
     <t>customer support specialist</t>
   </si>
   <si>
-    <t>calm down and response properly when getting email or anything else</t>
-  </si>
-  <si>
     <t>market research and predict</t>
+  </si>
+  <si>
+    <t>html5/css3</t>
+  </si>
+  <si>
+    <t>UCaaS / cloud infrustructure</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>Machine Learning/Deep Learning</t>
+  </si>
+  <si>
+    <t>think/act as a leader / Mentor</t>
+  </si>
+  <si>
+    <t>self-management</t>
+  </si>
+  <si>
+    <t>Time Manage</t>
+  </si>
+  <si>
+    <t>listen/reactor after think</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> thinking/act as a senior technical</t>
+  </si>
+  <si>
+    <t>calm down and response properly 
+when getting email or anything else</t>
+  </si>
+  <si>
+    <t>be happy and show position 
+to other people</t>
   </si>
 </sst>
 </file>
@@ -182,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +218,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,6 +251,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.28515625" defaultRowHeight="39.75" customHeight="1"/>
@@ -542,10 +577,10 @@
         <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="39.75" customHeight="1">
@@ -562,68 +597,80 @@
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="39.75" customHeight="1">
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="39.75" customHeight="1">
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1">
         <v>802.11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="39.75" customHeight="1">
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="39.75" customHeight="1">
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="39.75" customHeight="1">
-      <c r="C7" s="1" t="s">
-        <v>26</v>
+      <c r="C7" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -633,18 +680,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F7"/>
+  <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" style="1"/>
+    <col min="6" max="6" width="33.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="2" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="2:7" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
@@ -660,8 +710,11 @@
       <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="2:6" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
@@ -677,36 +730,45 @@
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="30" customHeight="1">
-      <c r="F4" t="s">
+    <row r="4" spans="2:7" ht="30" customHeight="1">
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="30" customHeight="1">
+      <c r="D5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="30" customHeight="1">
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="6" spans="2:7" ht="30" customHeight="1">
+      <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="30" customHeight="1">
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="30" customHeight="1">
-      <c r="F7" t="s">
-        <v>48</v>
+    <row r="7" spans="2:7" ht="30" customHeight="1">
+      <c r="F7" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -730,31 +792,31 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1">
       <c r="B3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.5" customHeight="1">
       <c r="C4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/self-assessment.xlsx
+++ b/self-assessment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>business domain</t>
   </si>
@@ -70,15 +70,6 @@
   </si>
   <si>
     <t>english</t>
-  </si>
-  <si>
-    <t>commication skill</t>
-  </si>
-  <si>
-    <t>passion</t>
-  </si>
-  <si>
-    <t>attitude</t>
   </si>
   <si>
     <t>to be +</t>
@@ -193,6 +184,18 @@
   <si>
     <t>be happy and show position 
 to other people</t>
+  </si>
+  <si>
+    <t>passionate</t>
+  </si>
+  <si>
+    <t>to be + AWESOME</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> self-motivated / attitude</t>
+  </si>
+  <si>
+    <t>proactive think-do / commication skill</t>
   </si>
 </sst>
 </file>
@@ -577,10 +580,10 @@
         <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="39.75" customHeight="1">
@@ -597,10 +600,10 @@
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="39.75" customHeight="1">
@@ -611,16 +614,16 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="39.75" customHeight="1">
@@ -631,16 +634,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1">
         <v>802.11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="39.75" customHeight="1">
@@ -651,26 +654,26 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="39.75" customHeight="1">
       <c r="B6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="39.75" customHeight="1">
       <c r="C7" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -683,13 +686,14 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
     <col min="4" max="4" width="33.7109375" style="1"/>
     <col min="6" max="6" width="33.7109375" style="1"/>
   </cols>
@@ -699,19 +703,19 @@
         <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
@@ -719,56 +723,56 @@
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:7" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="30" customHeight="1">
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1">
       <c r="D5" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1">
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1">
       <c r="F7" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -792,31 +796,31 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.5" customHeight="1">
       <c r="C4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1">
       <c r="B5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
